--- a/public/uploads/stocks/stock_list_22.xlsx
+++ b/public/uploads/stocks/stock_list_22.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Batch Number</t>
   </si>
   <si>
-    <t>Expiry Date (dd/mm/yyyy)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Current Stringent Regulatory Authority (SRA) Approvals </t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>IU</t>
+  </si>
+  <si>
+    <t>Expiry Date (dd-mm-yyyy)</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="65" zoomScalePageLayoutView="98" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>3</v>
@@ -707,22 +707,22 @@
         <v>18</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -739,13 +739,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="H2" s="6">
         <v>2178251</v>
@@ -754,16 +754,16 @@
         <v>42715</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="6">
         <v>20</v>
       </c>
-      <c r="L2" s="11">
-        <v>32</v>
-      </c>
-      <c r="M2" s="11">
-        <v>4</v>
+      <c r="L2" s="6">
+        <v>35</v>
+      </c>
+      <c r="M2" s="6">
+        <v>3</v>
       </c>
       <c r="N2" s="3">
         <v>3</v>
@@ -783,13 +783,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="6">
         <v>324324</v>
@@ -798,16 +798,16 @@
         <v>42715</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="6">
         <v>20</v>
       </c>
-      <c r="L3" s="11">
-        <v>454</v>
-      </c>
-      <c r="M3" s="11">
-        <v>3</v>
+      <c r="L3" s="6">
+        <v>432</v>
+      </c>
+      <c r="M3" s="6">
+        <v>4</v>
       </c>
       <c r="N3" s="3">
         <v>4</v>
@@ -817,9 +817,7 @@
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="7"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -827,14 +825,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>34</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="6">
         <v>453543</v>
       </c>
@@ -842,16 +836,16 @@
         <v>42715</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="6">
         <v>32</v>
       </c>
-      <c r="L4" s="11">
-        <v>65</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
+      <c r="L4" s="6">
+        <v>35</v>
+      </c>
+      <c r="M4" s="6">
+        <v>3</v>
       </c>
       <c r="N4" s="3">
         <v>5</v>
@@ -870,14 +864,10 @@
       <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="6">
         <v>454345</v>
@@ -886,16 +876,14 @@
         <v>42715</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="6">
         <v>43</v>
       </c>
-      <c r="L5" s="11">
-        <v>34</v>
-      </c>
-      <c r="M5" s="11">
-        <v>3</v>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6">
+        <v>4</v>
       </c>
       <c r="N5" s="3">
         <v>3</v>
@@ -915,13 +903,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="6">
         <v>5434545</v>
@@ -930,16 +918,14 @@
         <v>42715</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <v>35</v>
       </c>
-      <c r="K6" s="6">
-        <v>45</v>
-      </c>
-      <c r="L6" s="11">
-        <v>3232</v>
-      </c>
-      <c r="M6" s="11">
-        <v>4</v>
+      <c r="M6" s="6">
+        <v>3</v>
       </c>
       <c r="N6" s="3">
         <v>2</v>
@@ -952,42 +938,34 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="16">
         <v>1</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="6">
         <v>43543543</v>
       </c>
-      <c r="I7" s="19">
-        <v>42715</v>
-      </c>
+      <c r="I7" s="19"/>
       <c r="J7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="6">
         <v>23</v>
       </c>
-      <c r="L7" s="11">
-        <v>43</v>
-      </c>
-      <c r="M7" s="11">
-        <v>5</v>
-      </c>
-      <c r="N7" s="3">
-        <v>4</v>
-      </c>
+      <c r="L7" s="6">
+        <v>432</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -997,19 +975,19 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="16">
         <v>10000</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="6">
         <v>453434</v>
@@ -1018,7 +996,7 @@
         <v>42715</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K8" s="6">
         <v>45</v>
@@ -1047,13 +1025,13 @@
         <v>50</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="6">
         <v>342546</v>
@@ -1062,7 +1040,7 @@
         <v>42715</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="6">
         <v>65</v>

--- a/public/uploads/stocks/stock_list_22.xlsx
+++ b/public/uploads/stocks/stock_list_22.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -660,7 +660,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="65" zoomScalePageLayoutView="98" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -817,7 +817,9 @@
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -827,8 +829,12 @@
       <c r="E4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="H4" s="6">
         <v>453543</v>
       </c>
@@ -864,8 +870,12 @@
       <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>27</v>
       </c>
@@ -881,7 +891,9 @@
       <c r="K5" s="6">
         <v>43</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6">
+        <v>432</v>
+      </c>
       <c r="M5" s="6">
         <v>4</v>
       </c>
@@ -920,7 +932,9 @@
       <c r="J6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6">
+        <v>45</v>
+      </c>
       <c r="L6" s="6">
         <v>35</v>
       </c>
@@ -938,7 +952,9 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="16">
         <v>1</v>
       </c>
@@ -954,7 +970,9 @@
       <c r="H7" s="6">
         <v>43543543</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="19">
+        <v>42715</v>
+      </c>
       <c r="J7" s="6" t="s">
         <v>34</v>
       </c>
@@ -964,8 +982,12 @@
       <c r="L7" s="6">
         <v>432</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="3"/>
+      <c r="M7" s="6">
+        <v>4</v>
+      </c>
+      <c r="N7" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
